--- a/data_science_grades.xlsx
+++ b/data_science_grades.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Student</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>jw3134</t>
+  </si>
+  <si>
+    <t>yep that's a screenshot</t>
+  </si>
+  <si>
+    <t>good work!</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G79"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -499,7 +505,9 @@
       <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G4" s="1">
         <v>100</v>
       </c>
@@ -520,7 +528,9 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="1">
         <v>100</v>
       </c>
